--- a/Resources/Map/Map1.xlsx
+++ b/Resources/Map/Map1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learn\Program Projects\KamataEngine\20230808_BallShooting\Resources\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2BB55B-EB3F-473A-ABBF-113E73DBD715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4227428-D2FD-4AB4-B8AD-143047623A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="23064" windowHeight="12472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="5">
   <si>
     <t>w</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,12 +67,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,9 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -371,7 +384,7 @@
   <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -970,7 +983,7 @@
       <c r="N5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -994,8 +1007,8 @@
       <c r="V5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>1</v>
+      <c r="W5" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>1</v>
@@ -1226,8 +1239,8 @@
       <c r="H7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>1</v>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>1</v>
@@ -1319,8 +1332,8 @@
       <c r="AM7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AN7" s="1" t="s">
-        <v>1</v>
+      <c r="AN7" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>1</v>
@@ -1488,8 +1501,8 @@
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>1</v>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
@@ -1569,8 +1582,8 @@
       <c r="AE9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>1</v>
+      <c r="AF9" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="AG9" s="1" t="s">
         <v>1</v>
@@ -1685,7 +1698,7 @@
       <c r="X10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z10" s="1" t="s">
@@ -1905,7 +1918,7 @@
       <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -2194,8 +2207,8 @@
       <c r="K14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>1</v>
+      <c r="L14" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>1</v>
@@ -2269,8 +2282,8 @@
       <c r="AJ14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AK14" s="1" t="s">
-        <v>1</v>
+      <c r="AK14" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="AL14" s="1" t="s">
         <v>1</v>
@@ -2629,7 +2642,7 @@
       <c r="S17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="1" t="s">
@@ -2638,7 +2651,7 @@
       <c r="V17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="1" t="s">
@@ -2754,7 +2767,7 @@
       <c r="O18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -2945,8 +2958,8 @@
       <c r="AG19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AH19" s="1" t="s">
-        <v>1</v>
+      <c r="AH19" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="AI19" s="1" t="s">
         <v>1</v>
@@ -3201,7 +3214,7 @@
       <c r="AA21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AB21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AC21" s="1" t="s">
